--- a/Projects/CCRU/Data/gaps_guide_2018.xlsx
+++ b/Projects/CCRU/Data/gaps_guide_2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="rules" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,6 +30,7 @@
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Convenience Small'!$A$1:$K$15</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Pos 2018 - MT - Convenience Big'!$A$1:$K$16</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -322,7 +323,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -346,6 +347,13 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -362,17 +370,9 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -381,14 +381,8 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,14 +395,8 @@
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -429,20 +417,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -474,101 +448,53 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -655,9 +581,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>292320</xdr:colOff>
+      <xdr:colOff>291960</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>129240</xdr:rowOff>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -671,7 +597,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17894520" cy="2224440"/>
+          <a:ext cx="17894160" cy="2224080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -697,7 +623,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -724,110 +650,118 @@
   </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L27" activeCellId="0" sqref="L27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="19.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="9" min="1" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="34.0364372469636"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.2388663967611"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.32793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.2105263157895"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.2672064777328"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.4736842105263"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="29.7651821862348"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+    <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+    <row r="2" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="1" t="n">
         <v>2486</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="21" t="n">
+      <c r="H2" s="11" t="n">
         <v>0.08</v>
       </c>
-      <c r="I2" s="4" t="n">
+      <c r="I2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="4" t="n">
+      <c r="J2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    <row r="3" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="1" t="n">
         <v>2490</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="23" t="n">
+      <c r="H3" s="11" t="n">
         <v>0.1</v>
       </c>
-      <c r="I3" s="4" t="n">
+      <c r="I3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="4" t="n">
+      <c r="J3" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -849,498 +783,506 @@
   </sheetPr>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="19.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.6072874493927"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.5222672064777"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.2388663967611"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="29.1781376518219"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="14.919028340081"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.5344129554656"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="29.1781376518219"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.4736842105263"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.6801619433198"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.9716599190283"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="0" t="s">
+    <row r="2" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>2519</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="0" t="s">
+    <row r="3" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>2521</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="0" t="s">
+    <row r="4" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <v>2523</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="0" t="s">
+    <row r="5" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <v>2525</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="0" t="s">
+    <row r="6" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="1" t="n">
         <v>2527</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="1" t="n">
         <v>0.08</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="0" t="s">
+    <row r="7" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="1" t="n">
         <v>2528</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="J7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K7" s="0" t="n">
+      <c r="J7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K7" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="0" t="s">
+    <row r="8" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="1" t="n">
         <v>2529</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="1" t="n">
         <v>0.03</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="0" t="s">
+    <row r="9" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="1" t="n">
         <v>2530</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="J9" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="K9" s="0" t="n">
+      <c r="J9" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="K9" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="0" t="s">
+    <row r="10" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="1" t="n">
         <v>2531</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="1" t="n">
         <v>0.06</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" s="1" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="0" t="s">
+    <row r="11" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="1" t="n">
         <v>2532</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="J11" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="J11" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="1" t="n">
         <v>2533</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="1" t="n">
         <v>0.09</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K12" s="0" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="K12" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="1" t="n">
         <v>2536</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="1" t="n">
         <v>0.023</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K13" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="0" t="s">
+      <c r="K13" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="1" t="n">
         <v>2538</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14" s="1" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="0" t="s">
+    <row r="15" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="1" t="n">
         <v>2539</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="1" t="n">
         <v>0.03</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15" s="1" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1370,530 +1312,538 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="19.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="9" min="1" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.8056680161943"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.2388663967611"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="29.1781376518219"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.7125506072875"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.32793522267206"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="29.1781376518219"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.2672064777328"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.4736842105263"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.7651821862348"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="0" t="s">
+    <row r="2" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>2494</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="0" t="s">
+    <row r="3" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>2496</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="0" t="s">
+    <row r="4" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <v>2498</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="0" t="s">
+    <row r="5" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <v>2500</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="J5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K5" s="0" t="n">
+      <c r="J5" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K5" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="0" t="s">
+    <row r="6" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="1" t="n">
         <v>2502</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="0" t="s">
+    <row r="7" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="1" t="n">
         <v>2503</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="J7" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="K7" s="0" t="n">
+      <c r="J7" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="K7" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="0" t="s">
+    <row r="8" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="1" t="n">
         <v>2504</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="1" t="n">
         <v>0.04</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="0" t="s">
+    <row r="9" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="1" t="n">
         <v>2505</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="J9" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="K9" s="0" t="n">
+      <c r="J9" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="K9" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="0" t="s">
+    <row r="10" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="1" t="n">
         <v>2506</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" s="1" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="0" t="s">
+    <row r="11" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="1" t="n">
         <v>2507</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="K11" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="0" t="s">
+      <c r="K11" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="1" t="n">
         <v>2508</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="1" t="n">
         <v>0.03</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="K12" s="0" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="K12" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="1" t="n">
         <v>2509</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="1" t="n">
         <v>0.09</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K13" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="K13" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="1" t="n">
         <v>2512</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="1" t="n">
         <v>0.023</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14" s="1" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="0" t="s">
+    <row r="15" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="1" t="n">
         <v>2514</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15" s="1" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="0" t="s">
+    <row r="16" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="1" t="n">
         <v>2515</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="1" t="n">
         <v>0.03</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="K16" s="1" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1915,692 +1865,694 @@
   </sheetPr>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="19.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.1740890688259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.3198380566802"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.1619433198381"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.7327935222672"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="46.0323886639676"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="29.1781376518219"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.32793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="29.1781376518219"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.2672064777328"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.4736842105263"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="29.7651821862348"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="6" t="s">
+    <row r="2" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="7" t="n">
+      <c r="F2" s="5" t="n">
         <v>2597</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="8" t="n">
+      <c r="H2" s="6" t="n">
         <v>0.025</v>
       </c>
-      <c r="I2" s="7" t="n">
+      <c r="I2" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J2" s="7" t="n">
+      <c r="J2" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6" t="s">
+    <row r="3" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="5" t="n">
         <v>2598</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="8" t="n">
+      <c r="H3" s="6" t="n">
         <v>0.01</v>
       </c>
-      <c r="I3" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="J3" s="7" t="n">
+      <c r="I3" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="J3" s="5" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6" t="s">
+    <row r="4" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="7" t="n">
+      <c r="F4" s="5" t="n">
         <v>2599</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="8" t="n">
+      <c r="H4" s="6" t="n">
         <v>0.02</v>
       </c>
-      <c r="I4" s="7" t="n">
+      <c r="I4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J4" s="7" t="n">
+      <c r="J4" s="5" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6" t="s">
+    <row r="5" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="F5" s="5" t="n">
         <v>2600</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="8" t="n">
+      <c r="H5" s="6" t="n">
         <v>0.01</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="I5" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="J5" s="7" t="n">
+      <c r="J5" s="5" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6" t="s">
+    <row r="6" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="5" t="n">
         <v>2601</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="8" t="n">
+      <c r="H6" s="6" t="n">
         <v>0.02</v>
       </c>
-      <c r="I6" s="7" t="n">
+      <c r="I6" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J6" s="7" t="n">
+      <c r="J6" s="5" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6" t="s">
+    <row r="7" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="7" t="n">
+      <c r="F7" s="5" t="n">
         <v>2602</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="8" t="n">
+      <c r="H7" s="6" t="n">
         <v>0.01</v>
       </c>
-      <c r="I7" s="7" t="n">
+      <c r="I7" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="J7" s="7" t="n">
+      <c r="J7" s="5" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="6" t="s">
+    <row r="8" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="5" t="n">
         <v>2603</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="8" t="n">
+      <c r="H8" s="6" t="n">
         <v>0.02</v>
       </c>
-      <c r="I8" s="7" t="n">
+      <c r="I8" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J8" s="7" t="n">
+      <c r="J8" s="5" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="6" t="s">
+    <row r="9" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="F9" s="5" t="n">
         <v>2604</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="8" t="n">
+      <c r="H9" s="6" t="n">
         <v>0.02</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="I9" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J9" s="7" t="n">
+      <c r="J9" s="5" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="6" t="s">
+    <row r="10" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="7" t="n">
+      <c r="F10" s="5" t="n">
         <v>2605</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="8" t="n">
+      <c r="H10" s="6" t="n">
         <v>0.02</v>
       </c>
-      <c r="I10" s="7" t="n">
+      <c r="I10" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J10" s="7" t="n">
+      <c r="J10" s="5" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="6" t="s">
+    <row r="11" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="7" t="n">
+      <c r="F11" s="5" t="n">
         <v>2606</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="8" t="n">
+      <c r="H11" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="I11" s="7" t="n">
+      <c r="I11" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="J11" s="7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="J11" s="5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="7" t="n">
+      <c r="F12" s="5" t="n">
         <v>2607</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="8" t="n">
+      <c r="H12" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="I12" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="J12" s="7" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="I12" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="7" t="n">
+      <c r="F13" s="5" t="n">
         <v>2608</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="8" t="n">
+      <c r="H13" s="6" t="n">
         <v>0.015</v>
       </c>
-      <c r="I13" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="J13" s="7" t="n">
+      <c r="I13" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="J13" s="5" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="6" t="s">
+    <row r="14" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="7" t="n">
+      <c r="F14" s="5" t="n">
         <v>2610</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="8" t="n">
+      <c r="H14" s="6" t="n">
         <v>0.01</v>
       </c>
-      <c r="I14" s="7" t="n">
+      <c r="I14" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="J14" s="7" t="n">
+      <c r="J14" s="5" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="6" t="s">
+    <row r="15" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="7" t="n">
+      <c r="F15" s="5" t="n">
         <v>2612</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="8" t="n">
+      <c r="H15" s="6" t="n">
         <v>0.01</v>
       </c>
-      <c r="I15" s="7" t="n">
+      <c r="I15" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="J15" s="7" t="n">
+      <c r="J15" s="5" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="6" t="s">
+    <row r="16" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="7" t="n">
+      <c r="F16" s="5" t="n">
         <v>2614</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="8" t="n">
+      <c r="H16" s="6" t="n">
         <v>0.01</v>
       </c>
-      <c r="I16" s="7" t="n">
+      <c r="I16" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="J16" s="7" t="n">
+      <c r="J16" s="5" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="6" t="s">
+    <row r="17" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="7" t="n">
+      <c r="F17" s="5" t="n">
         <v>2616</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="8" t="n">
+      <c r="H17" s="6" t="n">
         <v>0.01</v>
       </c>
-      <c r="I17" s="7" t="n">
+      <c r="I17" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="J17" s="7" t="n">
+      <c r="J17" s="5" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
+    <row r="18" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="7" t="n">
+      <c r="F18" s="5" t="n">
         <v>2619</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="8" t="n">
+      <c r="H18" s="6" t="n">
         <v>0.09</v>
       </c>
-      <c r="I18" s="7" t="n">
+      <c r="I18" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J18" s="7" t="n">
+      <c r="J18" s="5" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
+    <row r="19" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="7" t="n">
+      <c r="F19" s="5" t="n">
         <v>2622</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="8" t="n">
+      <c r="H19" s="6" t="n">
         <v>0.0225</v>
       </c>
-      <c r="I19" s="7" t="n">
+      <c r="I19" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J19" s="7" t="n">
+      <c r="J19" s="5" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="9" t="s">
+    <row r="20" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="7" t="n">
+      <c r="F20" s="5" t="n">
         <v>2626</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="8" t="n">
+      <c r="H20" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="I20" s="7" t="n">
+      <c r="I20" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J20" s="7" t="n">
+      <c r="J20" s="5" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="9" t="s">
+    <row r="21" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="7" t="n">
+      <c r="F21" s="5" t="n">
         <v>2627</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="8" t="n">
+      <c r="H21" s="6" t="n">
         <v>0.02</v>
       </c>
-      <c r="I21" s="7" t="n">
+      <c r="I21" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="J21" s="7" t="n">
+      <c r="J21" s="5" t="n">
         <v>21</v>
       </c>
     </row>
@@ -2623,630 +2575,630 @@
   </sheetPr>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="19.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.5222672064777"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.6437246963563"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.3765182186235"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.3522267206478"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="48.7246963562753"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="44.0769230769231"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="44.9271255060729"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="40.5182186234818"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="39.5425101214575"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.2388663967611"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="29.1781376518219"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.32793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="29.1781376518219"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.2672064777328"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.4736842105263"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="29.7651821862348"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="0" t="s">
+    <row r="2" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>2610</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="I2" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="J2" s="0" t="n">
+      <c r="I2" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="0" t="s">
+    <row r="3" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>2612</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="0" t="s">
+    <row r="4" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>2614</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="0" t="s">
+    <row r="5" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>2616</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="0" t="s">
+    <row r="6" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>2597</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <v>0.03</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="0" t="s">
+    <row r="7" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>2598</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="0" t="s">
+    <row r="8" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <v>2599</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <v>0.025</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="0" t="s">
+    <row r="9" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <v>2600</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="0" t="s">
+    <row r="10" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <v>2601</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="1" t="n">
         <v>0.025</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="1" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="0" t="s">
+    <row r="11" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <v>2602</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="J11" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="0" t="s">
+      <c r="J11" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <v>2603</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="1" t="n">
         <v>0.025</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="J12" s="0" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="0" t="s">
+      <c r="J12" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <v>2604</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="1" t="n">
         <v>0.025</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="J13" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="0" t="s">
+      <c r="J13" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="1" t="n">
         <v>2605</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14" s="1" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="0" t="s">
+    <row r="15" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="1" t="n">
         <v>2606</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="I15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" s="0" t="n">
+      <c r="I15" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J15" s="1" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="0" t="s">
+    <row r="16" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="1" t="n">
         <v>2619</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="1" t="n">
         <v>0.09</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16" s="1" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="1" t="n">
         <v>2622</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17" s="1" t="n">
         <v>0.023</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17" s="1" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="0" t="s">
+    <row r="18" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="1" t="n">
         <v>2626</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="1" t="n">
         <v>0.03</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J18" s="1" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="0" t="s">
+    <row r="19" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="1" t="n">
         <v>2627</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="I19" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="J19" s="0" t="n">
+      <c r="I19" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="J19" s="1" t="n">
         <v>18</v>
       </c>
     </row>
@@ -3268,147 +3220,150 @@
   </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="19.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.1133603238866"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.1133603238866"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.1133603238866"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="65.6194331983806"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.7368421052632"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.32793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.2105263157895"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.2672064777328"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.4736842105263"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="29.7651821862348"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+    <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="2" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="1" t="n">
         <v>2658</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>0.13</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    <row r="3" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="1" t="n">
         <v>2659</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>0.13</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+    <row r="4" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="1" t="n">
         <v>2652</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>0.08</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3430,244 +3385,246 @@
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F38" activeCellId="0" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="19.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6072874493927"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.4008097165992"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="57.7813765182186"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="42.1133603238866"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.6437246963563"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.748987854251"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.00404858299595"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.2388663967611"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="42.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.32793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.2672064777328"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.2672064777328"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.4736842105263"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="29.7651821862348"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="0" t="s">
+    <row r="2" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>2549</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>0.024</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="0" t="s">
+    <row r="3" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>2550</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>0.024</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="0" t="s">
+    <row r="4" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>2551</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>0.024</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="0" t="s">
+    <row r="5" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>2552</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>0.024</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>2555</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>2558</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <v>0.025</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3689,211 +3646,214 @@
   </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="19.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.6518218623482"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.6275303643725"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.748987854251"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.6194331983806"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="43.4615384615385"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.2388663967611"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.0323886639676"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.32793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.0323886639676"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.2672064777328"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.4736842105263"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="29.7651821862348"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="0" t="s">
+    <row r="2" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>2637</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="0" t="s">
+    <row r="3" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>2638</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>2639</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="0" t="s">
+    <row r="5" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>2641</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="0" t="s">
+    <row r="6" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>2642</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3915,174 +3875,182 @@
   </sheetPr>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="19.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="9" min="1" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.6882591093117"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.2388663967611"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="25.0566801619433"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.32793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="25.0566801619433"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.2672064777328"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.4736842105263"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="29.7651821862348"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="0" t="s">
+    <row r="2" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>2578</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="0" t="s">
+    <row r="3" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>2579</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="0" t="s">
+    <row r="4" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>2581</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>2583</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4104,206 +4072,214 @@
   </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="19.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="9" min="1" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="37.2145748987854"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.2388663967611"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="25.0566801619433"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.32793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="25.0566801619433"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.2672064777328"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.4736842105263"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="29.7651821862348"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="15" t="s">
+    <row r="2" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="15" t="n">
+      <c r="F2" s="8" t="n">
         <v>2589</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="16" t="n">
+      <c r="H2" s="9" t="n">
         <v>0.05</v>
       </c>
-      <c r="I2" s="17" t="n">
+      <c r="I2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="15" t="n">
+      <c r="J2" s="8" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="15" t="s">
+    <row r="3" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="15" t="n">
+      <c r="F3" s="8" t="n">
         <v>2590</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="16" t="n">
+      <c r="H3" s="9" t="n">
         <v>0.05</v>
       </c>
-      <c r="I3" s="17" t="n">
+      <c r="I3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J3" s="15" t="n">
+      <c r="J3" s="8" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="15" t="s">
+    <row r="4" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="15" t="n">
+      <c r="F4" s="8" t="n">
         <v>2591</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="16" t="n">
+      <c r="H4" s="9" t="n">
         <v>0.05</v>
       </c>
-      <c r="I4" s="15" t="n">
+      <c r="I4" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="J4" s="15" t="n">
+      <c r="J4" s="8" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="15" t="s">
+    <row r="5" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="15" t="n">
+      <c r="F5" s="8" t="n">
         <v>2592</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="16" t="n">
+      <c r="H5" s="9" t="n">
         <v>0.05</v>
       </c>
-      <c r="I5" s="15" t="n">
+      <c r="I5" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="J5" s="15" t="n">
+      <c r="J5" s="8" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
+    <row r="6" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="15" t="n">
+      <c r="F6" s="8" t="n">
         <v>2594</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="16" t="n">
+      <c r="H6" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="I6" s="15" t="n">
+      <c r="I6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="J6" s="15" t="n">
+      <c r="J6" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4325,239 +4301,250 @@
   </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M30" activeCellId="0" sqref="M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="19.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.0607287449393"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.2388663967611"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="25.0566801619433"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.7125506072875"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.32793522267206"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.0566801619433"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.2672064777328"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.4736842105263"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.7651821862348"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" s="3" customFormat="true" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="0" t="s">
+    <row r="2" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>2564</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="0" t="s">
+    <row r="3" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>2565</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="0" t="s">
+    <row r="4" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <v>2566</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <v>0.03</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="0" t="s">
+    <row r="5" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <v>2567</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <v>0.03</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="0" t="s">
+    <row r="6" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="1" t="n">
         <v>2568</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="1" t="n">
         <v>0.03</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="1" t="n">
         <v>2571</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7" s="1" t="n">
         <v>6</v>
       </c>
     </row>
